--- a/初めに/卒研仕様書.xlsx
+++ b/初めに/卒研仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsg_student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsg_student\Documents\GitHub\graduation\初めに\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="リソース一覧" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">リソース一覧!$A$1:$F$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">リソース一覧!$A$1:$F$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>１．基本フロー</t>
     <rPh sb="2" eb="4">
@@ -59,13 +59,6 @@
     <t>２）ゲーム画面</t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３．イベント仕様</t>
-    <rPh sb="6" eb="8">
-      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -613,31 +606,6 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>自機デザイン★プレーン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.png</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ジキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>敵機デザイン</t>
     </r>
     <r>
@@ -662,32 +630,85 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エフェクト（自機、青）</t>
-    <rPh sb="6" eb="8">
-      <t>ジキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エフェクト（自機、赤）</t>
-    <rPh sb="6" eb="8">
-      <t>ジキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エフェクト（自機、緑）</t>
-    <rPh sb="6" eb="8">
-      <t>ジキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ミドリ</t>
+    <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020,11,24作成　v1</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　装備弾の切り替え</t>
+    <rPh sb="1" eb="3">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．画面遷移図</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>センイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３）　Zキーで弾の発射</t>
+    <rPh sb="7" eb="8">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３）ゲームオーバー画面(理想図)</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リソウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２）　ゲームクリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１）　ステージボスの撃破　</t>
+    <rPh sb="10" eb="12">
+      <t>ゲキハ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -700,7 +721,86 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>属性弾（赤、敵）</t>
+      <t>背景（ステージ１）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ゲームオーバー画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア画面（エンディング）.png</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>属性弾（赤、敵）候補１</t>
     </r>
     <r>
       <rPr>
@@ -720,6 +820,9 @@
     <rPh sb="6" eb="7">
       <t>テキ</t>
     </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウホ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -731,7 +834,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>属性弾（青、敵）</t>
+      <t>属性弾（青、敵）候補３</t>
     </r>
     <r>
       <rPr>
@@ -751,6 +854,9 @@
     <rPh sb="6" eb="7">
       <t>テキ</t>
     </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウホ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -762,7 +868,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>属性弾（緑、敵）</t>
+      <t>属性弾（緑、敵）候補１</t>
     </r>
     <r>
       <rPr>
@@ -782,120 +888,156 @@
     <rPh sb="6" eb="7">
       <t>テキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームオーバー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１）　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020,11,24作成　v1</t>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　装備弾の切り替え</t>
-    <rPh sb="1" eb="3">
-      <t>ソウビ</t>
-    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_sub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自機</t>
+    <rPh sb="0" eb="2">
+      <t>ジキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト(青、修正).gif</t>
+  </si>
+  <si>
+    <t>エフェクト(赤、修正).gif</t>
+    <rPh sb="6" eb="7">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト(緑、修正).gif</t>
+    <rPh sb="6" eb="7">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．敵キャラ仕様</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１）　敵の数は全ステージ固定　</t>
     <rPh sb="3" eb="4">
-      <t>ダン</t>
+      <t>テキ</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>キ</t>
+      <t>カズ</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２．画面遷移図</t>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>センイズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３）　Zキーで弾の発射</t>
-    <rPh sb="7" eb="8">
-      <t>タマ</t>
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３）　敵の属性はランダム</t>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４）　敵の動きは固定しない</t>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５）　攻撃間隔（クールタイム）を乱数で固定し、初回以降は等間隔で攻撃</t>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>トウカンカク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２）　X軸の座標を乱数とし、Y軸を固定</t>
+    <rPh sb="4" eb="5">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ザヒョウ</t>
     </rPh>
     <rPh sb="9" eb="11">
-      <t>ハッシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３）ゲームオーバー画面(理想図)</t>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>リソウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>背景（ステージ１）修正</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.png</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２）　ゲームクリア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１）　ステージボスの撃破　</t>
-    <rPh sb="10" eb="12">
-      <t>ゲキハ</t>
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5142,7 +5284,7 @@
   <sheetData>
     <row r="33" spans="10:13">
       <c r="J33" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
@@ -5150,7 +5292,7 @@
     </row>
     <row r="35" spans="10:13">
       <c r="K35" s="16" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5168,7 +5310,7 @@
   </sheetPr>
   <dimension ref="A1:AH72"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY61" sqref="AY61"/>
     </sheetView>
   </sheetViews>
@@ -5190,7 +5332,7 @@
     </row>
     <row r="12" spans="1:34" ht="17.25">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -5204,7 +5346,7 @@
     <row r="29" spans="1:2" ht="17.25">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="2:2">
@@ -5214,7 +5356,7 @@
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5234,27 +5376,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25">
@@ -5264,55 +5406,75 @@
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.25">
       <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="B19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5331,10 +5493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="O12:P12"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
@@ -5343,27 +5505,27 @@
     <col min="3" max="3" width="6.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="2.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
@@ -5371,13 +5533,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
@@ -5390,21 +5552,21 @@
     </row>
     <row r="6" spans="1:6" ht="18" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
@@ -5412,13 +5574,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
@@ -5426,13 +5588,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
@@ -5440,41 +5602,41 @@
         <v>3</v>
       </c>
       <c r="D10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>50</v>
-      </c>
       <c r="F10" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="C11" s="22">
         <v>4</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="C12" s="22">
         <v>5</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1">
@@ -5482,13 +5644,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1">
@@ -5496,13 +5658,13 @@
         <v>7</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
@@ -5510,13 +5672,13 @@
         <v>8</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>54</v>
+        <v>79</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1">
@@ -5524,239 +5686,309 @@
         <v>9</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+        <v>79</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="15.75" thickBot="1">
       <c r="C17" s="22">
         <v>10</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="15.75" thickBot="1">
       <c r="C18" s="22">
         <v>11</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+        <v>53</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="15.75" thickBot="1">
       <c r="C19" s="22">
         <v>12</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="15.75" thickBot="1">
       <c r="C20" s="22">
         <v>13</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F20" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C21" s="22">
+        <v>14</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1">
-      <c r="C21" s="9">
-        <v>14</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1">
-      <c r="C22" s="9">
+    <row r="22" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C22" s="22">
         <v>15</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="18" t="s">
+      <c r="D22" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C23" s="22">
+        <v>16</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C24" s="22">
+        <v>17</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C25" s="22">
+        <v>18</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
-      <c r="C23" s="9">
-        <v>16</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1">
-      <c r="C24" s="9">
-        <v>17</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
-      <c r="C25" s="9">
-        <v>18</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+    </row>
+    <row r="26" spans="3:6" ht="15.75" thickBot="1">
       <c r="C26" s="9">
         <v>19</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" thickBot="1">
-      <c r="A28" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1">
-      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C27" s="9">
+        <v>20</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C28" s="9">
+        <v>21</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C29" s="9">
+        <v>22</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C30" s="9">
+        <v>23</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C31" s="9">
+        <v>24</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" thickBot="1">
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C30" s="6">
+    </row>
+    <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C35" s="6">
         <v>1</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C36" s="8">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1">
-      <c r="C31" s="8">
-        <v>2</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="E36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C37" s="10">
+        <v>3</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="C32" s="10">
-        <v>3</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C33" s="10">
+      <c r="E37" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C38" s="10">
         <v>5</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C39" s="8">
+        <v>6</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C34" s="8">
-        <v>6</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="E39" s="13"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C40" s="10">
+        <v>7</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C35" s="10">
-        <v>7</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="21"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
